--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3440.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3440.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.351487263870738</v>
+        <v>1.333087921142578</v>
       </c>
       <c r="B1">
-        <v>2.910786254305313</v>
+        <v>2.470479249954224</v>
       </c>
       <c r="C1">
-        <v>3.583593507417809</v>
+        <v>6.017116069793701</v>
       </c>
       <c r="D1">
-        <v>4.072867509256262</v>
+        <v>1.880101084709167</v>
       </c>
       <c r="E1">
-        <v>1.135886715843044</v>
+        <v>1.269769549369812</v>
       </c>
     </row>
   </sheetData>
